--- a/ITE4116M/Assets/_Excel/cardType.xlsx
+++ b/ITE4116M/Assets/_Excel/cardType.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\FYP\ITE4116M\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84773D09-BFE4-4BB9-AAF1-990FAAE3DCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78F58BB-0F64-40D5-ABC8-EDCDAEF8162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,6 @@
     <t>Index</t>
   </si>
   <si>
-    <t>卡牌类型的名称</t>
-  </si>
-  <si>
-    <t>下标</t>
-  </si>
-  <si>
     <t>All</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +46,14 @@
   </si>
   <si>
     <t>Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌類型的名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下標</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +423,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -444,11 +446,11 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -456,7 +458,7 @@
         <v>10000</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -467,7 +469,7 @@
         <v>10001</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -478,7 +480,7 @@
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -489,7 +491,7 @@
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
